--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/498955a093f4b485/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darron\Documents\GitHub\prsg-misc\Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
     <definedName name="VD">'Motor size sheet'!$B$5</definedName>
     <definedName name="VE">'Motor size sheet'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -212,9 +212,6 @@
     <t>https://www.pololu.com/product/3117</t>
   </si>
   <si>
-    <t>Chassis</t>
-  </si>
-  <si>
     <t>Motors with built in wheel encoders</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>https://www.pololu.com/product/1081</t>
   </si>
   <si>
-    <t>Pololu Ball Caster with 1/2″ Plastic Ball</t>
-  </si>
-  <si>
     <t>OPT SENSOR</t>
   </si>
   <si>
@@ -282,13 +276,34 @@
   </si>
   <si>
     <t>MPU-6050 3 Axis gyroscope + accelerometer module</t>
+  </si>
+  <si>
+    <t>Pololu Ball Caster with TBD″ Plastic Ball</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>Chassis Laser Cut</t>
+  </si>
+  <si>
+    <t>Universal Smart Charger for Li-Ion battery Packs 3.7V - 14.8V 1-4 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4V 2200mAh Battery Pack </t>
+  </si>
+  <si>
+    <t>7.4V 5200mAh Side By Side Li-Ion Battery Pack</t>
+  </si>
+  <si>
+    <t>Tenergy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,13 +379,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,70 +697,70 @@
       <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10">
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11">
         <v>50</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11">
         <v>90</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
         <v>100</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
         <v>130</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
         <v>200</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11">
         <v>320</v>
       </c>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -789,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>CONVERT(B4,"mm","in")</f>
         <v>1.2598425196850394</v>
@@ -846,7 +861,7 @@
         <v>0.53616514621265798</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>CONVERT(B5,"mm","in")</f>
         <v>1.5748031496062993</v>
@@ -903,7 +918,7 @@
         <v>0.67020643276582259</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>CONVERT(B6,"mm","in")</f>
         <v>1.6535433070866143</v>
@@ -960,7 +975,7 @@
         <v>0.70371675440411374</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>CONVERT(B7,"mm","in")</f>
         <v>1.9685039370078741</v>
@@ -1017,7 +1032,7 @@
         <v>0.83775804095727813</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>CONVERT(B8,"mm","in")</f>
         <v>2.3622047244094486</v>
@@ -1074,7 +1089,7 @@
         <v>1.0053096491487337</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2.5</v>
       </c>
@@ -1131,7 +1146,7 @@
         <v>1.0639527120157433</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>CONVERT(B10,"mm","in")</f>
         <v>2.7559055118110236</v>
@@ -1188,7 +1203,7 @@
         <v>1.1728612573401893</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>CONVERT(B11,"mm","in")</f>
         <v>2.9527559055118111</v>
@@ -1245,7 +1260,7 @@
         <v>1.2566370614359175</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>CONVERT(B12,"mm","in")</f>
         <v>3.1496062992125986</v>
@@ -1302,7 +1317,7 @@
         <v>1.3404128655316452</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>CONVERT(B13,"mm","in")</f>
         <v>3.9370078740157481</v>
@@ -1359,7 +1374,7 @@
         <v>1.6755160819145563</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>CONVERT(B14,"mm","in")</f>
         <v>4.7244094488188972</v>
@@ -1416,7 +1431,7 @@
         <v>2.0106192982974673</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1432,7 +1447,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1477,22 +1492,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1569,7 +1584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1591,12 +1606,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1672,7 +1687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1684,19 +1699,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -1719,42 +1734,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
-        <f>B20*0.45359237</f>
+        <f t="shared" ref="B22:H22" si="0">B20*0.45359237</f>
         <v>0.45359237000000002</v>
       </c>
       <c r="C22" s="6">
-        <f>C20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>0.90718474000000004</v>
       </c>
       <c r="D22" s="6">
-        <f>D20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>1.3607771100000001</v>
       </c>
       <c r="E22" s="6">
-        <f>E20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>1.8143694800000001</v>
       </c>
       <c r="F22" s="6">
-        <f>F20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>2.2679618500000003</v>
       </c>
       <c r="G22" s="6">
-        <f>G20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>4.5359237000000006</v>
       </c>
       <c r="H22" s="6">
-        <f>H20*0.45359237</f>
+        <f t="shared" si="0"/>
         <v>9.0718474000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1766,106 +1781,106 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*B22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" ref="B24:H24" si="1">((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*B22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
         <v>3.7214297994981237E-2</v>
       </c>
       <c r="C24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*C22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>7.4428595989962473E-2</v>
       </c>
       <c r="D24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*D22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>0.11164289398494372</v>
       </c>
       <c r="E24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*E22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>0.14885719197992495</v>
       </c>
       <c r="F24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*F22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>0.18607148997490619</v>
       </c>
       <c r="G24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*G22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>0.37214297994981238</v>
       </c>
       <c r="H24" s="6">
-        <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*H22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
+        <f t="shared" si="1"/>
         <v>0.74428595989962476</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="6">
-        <f>B24*100/9.81</f>
+        <f t="shared" ref="B25:H25" si="2">B24*100/9.81</f>
         <v>0.37935064215067521</v>
       </c>
       <c r="C25" s="6">
-        <f>C24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>0.75870128430135042</v>
       </c>
       <c r="D25" s="6">
-        <f>D24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>1.1380519264520257</v>
       </c>
       <c r="E25" s="6">
-        <f>E24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>1.5174025686027008</v>
       </c>
       <c r="F25" s="6">
-        <f>F24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>1.896753210753376</v>
       </c>
       <c r="G25" s="6">
-        <f>G24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>3.793506421506752</v>
       </c>
       <c r="H25" s="6">
-        <f>H24*100/9.81</f>
+        <f t="shared" si="2"/>
         <v>7.587012843013504</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6">
-        <f>B24*141.593</f>
+        <f t="shared" ref="B26:H26" si="3">B24*141.593</f>
         <v>5.2692840960033775</v>
       </c>
       <c r="C26" s="6">
-        <f>C24*141.593</f>
+        <f t="shared" si="3"/>
         <v>10.538568192006755</v>
       </c>
       <c r="D26" s="6">
-        <f>D24*141.593</f>
+        <f t="shared" si="3"/>
         <v>15.807852288010135</v>
       </c>
       <c r="E26" s="6">
-        <f>E24*141.593</f>
+        <f t="shared" si="3"/>
         <v>21.07713638401351</v>
       </c>
       <c r="F26" s="6">
-        <f>F24*141.593</f>
+        <f t="shared" si="3"/>
         <v>26.346420480016889</v>
       </c>
       <c r="G26" s="6">
-        <f>G24*141.593</f>
+        <f t="shared" si="3"/>
         <v>52.692840960033777</v>
       </c>
       <c r="H26" s="6">
-        <f>H24*141.593</f>
+        <f t="shared" si="3"/>
         <v>105.38568192006755</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1877,102 +1892,102 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="6">
-        <f>B24*Angular_Velocity</f>
+        <f t="shared" ref="B28:H28" si="4">B24*Angular_Velocity</f>
         <v>0.49619063993308316</v>
       </c>
       <c r="C28" s="6">
-        <f>C24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>0.99238127986616631</v>
       </c>
       <c r="D28" s="6">
-        <f>D24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>1.4885719197992495</v>
       </c>
       <c r="E28" s="6">
-        <f>E24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>1.9847625597323326</v>
       </c>
       <c r="F28" s="6">
-        <f>F24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>2.4809531996654162</v>
       </c>
       <c r="G28" s="6">
-        <f>G24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>4.9619063993308323</v>
       </c>
       <c r="H28" s="6">
-        <f>H24*Angular_Velocity</f>
+        <f t="shared" si="4"/>
         <v>9.9238127986616647</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="6">
-        <f>B28/Supply_voltage</f>
+        <f t="shared" ref="B29:H29" si="5">B28/Supply_voltage</f>
         <v>6.7052789180146372E-2</v>
       </c>
       <c r="C29" s="6">
-        <f>C28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>0.13410557836029274</v>
       </c>
       <c r="D29" s="6">
-        <f>D28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>0.20115836754043911</v>
       </c>
       <c r="E29" s="6">
-        <f>E28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>0.26821115672058549</v>
       </c>
       <c r="F29" s="6">
-        <f>F28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>0.33526394590073189</v>
       </c>
       <c r="G29" s="6">
-        <f>G28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>0.67052789180146377</v>
       </c>
       <c r="H29" s="6">
-        <f>H28/Supply_voltage</f>
+        <f t="shared" si="5"/>
         <v>1.3410557836029275</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="6">
-        <f>B29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" ref="B30:H30" si="6">B29*(Desired_operating_time/60)*Number_of_drive_motors</f>
         <v>0.26821115672058549</v>
       </c>
       <c r="C30" s="6">
-        <f>C29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>0.53642231344117097</v>
       </c>
       <c r="D30" s="6">
-        <f>D29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>0.80463347016175646</v>
       </c>
       <c r="E30" s="6">
-        <f>E29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>1.0728446268823419</v>
       </c>
       <c r="F30" s="6">
-        <f>F29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>1.3410557836029275</v>
       </c>
       <c r="G30" s="6">
-        <f>G29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>2.6821115672058551</v>
       </c>
       <c r="H30" s="6">
-        <f>H29*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <f t="shared" si="6"/>
         <v>5.3642231344117102</v>
       </c>
     </row>
@@ -1984,24 +1999,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2067,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D35" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D38" si="0">B4*C4</f>
         <v>10</v>
       </c>
       <c r="I4">
@@ -2080,7 +2100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2121,28 +2141,28 @@
       <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2155,9 +2175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2172,13 +2192,13 @@
       <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>61</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2193,13 +2213,13 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2211,88 +2231,101 @@
         <f t="shared" si="0"/>
         <v>3.98</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5" t="s">
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>23.95</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>42.95</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>21.95</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
+      <c r="C17">
+        <v>4.95</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="C18">
+        <v>4.25</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="C14">
-        <v>4.95</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15">
-        <v>4.25</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>71</v>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>9.9499999999999993</v>
@@ -2301,158 +2334,200 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>11.95</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>11.95</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="C25">
+        <v>29.99</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="C26">
+        <v>2.99</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C22">
-        <v>29.99</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="C23">
-        <v>2.99</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="C28">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="C29">
+        <v>24.95</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
-      <c r="C25">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C30">
+        <v>19.95</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="C26">
-        <v>24.95</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27">
-        <v>19.95</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28">
+      <c r="C31">
         <v>4.29</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36">
-        <f>SUM(D3:D35)</f>
-        <v>131.83000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>SUM(D3:D38)</f>
+        <v>106.83000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2462,5 +2537,6 @@
     <hyperlink ref="F10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darron\Documents\GitHub\prsg-misc\Worksheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -34,12 +29,12 @@
     <definedName name="VD">'Motor size sheet'!$B$5</definedName>
     <definedName name="VE">'Motor size sheet'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -297,6 +292,15 @@
   </si>
   <si>
     <t>Tenergy </t>
+  </si>
+  <si>
+    <t>Battery Power</t>
+  </si>
+  <si>
+    <t>(cost was avg from different sites)</t>
+  </si>
+  <si>
+    <t>http://www.tenergy.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,10 +2006,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D38" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D39" si="0">B4*C4</f>
         <v>10</v>
       </c>
       <c r="I4">
@@ -2236,26 +2240,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12">
-        <v>23.95</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
-        <v>42.95</v>
+        <v>23.95</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -2264,13 +2261,16 @@
       <c r="E13" t="s">
         <v>85</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>21.95</v>
+        <v>42.95</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2279,38 +2279,44 @@
       <c r="E14" t="s">
         <v>85</v>
       </c>
+      <c r="F14" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>21.95</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17">
-        <v>4.95</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
-        <v>4.25</v>
+        <v>4.95</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2322,13 +2328,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C19">
-        <v>9.9499999999999993</v>
+        <v>4.25</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2339,28 +2342,31 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>9.9499999999999993</v>
@@ -2375,13 +2381,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C23">
-        <v>11.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -2392,60 +2395,63 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>11.95</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
-        <v>29.99</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>29.99</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>2.99</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>24.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -2457,10 +2463,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30">
-        <v>19.95</v>
+        <v>24.95</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -2472,17 +2478,26 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>19.95</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>4.29</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2526,7 +2541,13 @@
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39">
-        <f>SUM(D3:D38)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>SUM(D3:D39)</f>
         <v>106.83000000000001</v>
       </c>
     </row>
@@ -2535,8 +2556,11 @@
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="F9" r:id="rId2"/>
     <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -301,12 +301,19 @@
   </si>
   <si>
     <t>http://www.tenergy.com</t>
+  </si>
+  <si>
+    <t>lbf-in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,8 +394,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,62 +723,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12">
         <v>50</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
         <v>90</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>100</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
         <v>130</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
         <v>200</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
         <v>320</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1494,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1640,21 +1656,21 @@
       </c>
       <c r="B14" s="6">
         <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*Total_mass*Radius_of_drive_wheel)/Number_of_drive_motors</f>
-        <v>4.1021741607978585E-2</v>
+        <v>0.24613044964787148</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7">
         <f>B14*100/9.81</f>
-        <v>0.41816250364911906</v>
+        <v>2.508975021894714</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7">
         <f>B14*141.593</f>
-        <v>5.8083914594985115</v>
+        <v>34.85034875699106</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
@@ -1666,14 +1682,14 @@
       </c>
       <c r="B15" s="6">
         <f>Torque*Angular_Velocity</f>
-        <v>0.54695655477304783</v>
+        <v>3.2817393286382863</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="7">
         <f>B15*0.00134102209</f>
-        <v>7.3348082222095203E-4</v>
+        <v>4.4008849333257117E-3</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>35</v>
@@ -1685,7 +1701,7 @@
       </c>
       <c r="B16" s="6">
         <f>B15/Supply_voltage</f>
-        <v>7.3913047942303758E-2</v>
+        <v>0.44347828765382247</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
@@ -1697,7 +1713,7 @@
       </c>
       <c r="B17" s="6">
         <f>B16*(Desired_operating_time/60)*Number_of_drive_motors</f>
-        <v>0.29565219176921503</v>
+        <v>1.7739131506152899</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -1789,7 +1805,7 @@
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="14">
         <f t="shared" ref="B24:H24" si="1">((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*B22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
         <v>3.7214297994981237E-2</v>
       </c>
@@ -1993,6 +2009,183 @@
       <c r="H30" s="6">
         <f t="shared" si="6"/>
         <v>5.3642231344117102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="C34" s="15">
+        <f>981*C35/10000</f>
+        <v>7.4556000000000011E-2</v>
+      </c>
+      <c r="D34" s="15">
+        <f>D36*1000/141593</f>
+        <v>0.28249984109383941</v>
+      </c>
+      <c r="E34" s="15">
+        <f>E36*1000/141593</f>
+        <v>0.35312480136729923</v>
+      </c>
+      <c r="F34" s="15">
+        <f>F36*1000/141593</f>
+        <v>1.7656240068364961</v>
+      </c>
+      <c r="G34" s="15">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="H34" s="15">
+        <f>H36*1000/141593</f>
+        <v>0.56499968218767882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" ref="B35:E35" si="7">B34*100/9.81</f>
+        <v>0.37920489296636078</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="7"/>
+        <v>2.8797129571237452</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="7"/>
+        <v>3.5996411964046811</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" ref="F35:G35" si="8">F34*100/9.81</f>
+        <v>17.998205982023403</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="8"/>
+        <v>28.532110091743114</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" ref="H35" si="9">H34*100/9.81</f>
+        <v>5.7594259142474904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" ref="B36" si="10">B34*141.593</f>
+        <v>5.2672595999999992</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" ref="C36" si="11">C34*141.593</f>
+        <v>10.556607708000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>40</v>
+      </c>
+      <c r="E36" s="15">
+        <v>50</v>
+      </c>
+      <c r="F36" s="15">
+        <v>250</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" ref="G36" si="12">G34*141.593</f>
+        <v>396.31880699999994</v>
+      </c>
+      <c r="H36" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15">
+        <v>24.78</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <f>(Total_efficiency*Number_of_drive_motors*B34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>0.45341809662177696</v>
+      </c>
+      <c r="C39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*C34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>0.90873762397132296</v>
+      </c>
+      <c r="D39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*D34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>3.4432940926000839</v>
+      </c>
+      <c r="E39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*E34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>4.3041176157501049</v>
+      </c>
+      <c r="F39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*F34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>21.520588078750524</v>
+      </c>
+      <c r="G39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*G34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>34.116055173235317</v>
+      </c>
+      <c r="H39" s="11">
+        <f>(Total_efficiency*Number_of_drive_motors*H34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>6.8865881852001678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <f>CONVERT(B39*1000,"g","lbm")</f>
+        <v>0.99961579296798342</v>
+      </c>
+      <c r="C40" s="11">
+        <f>CONVERT(C39*1000,"g","lbm")</f>
+        <v>2.0034235231322848</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" ref="D40:H40" si="13">CONVERT(D39*1000,"g","lbm")</f>
+        <v>7.591164050224398</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="13"/>
+        <v>9.4889550627804979</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="13"/>
+        <v>47.444775313902483</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="13"/>
+        <v>75.213027003155545</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="13"/>
+        <v>15.182328100448796</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2201,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>lbf-in</t>
+  </si>
+  <si>
+    <t>Maker Block</t>
+  </si>
+  <si>
+    <t>Mcpro</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -367,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,14 +403,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,62 +732,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15">
         <v>50</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15">
         <v>90</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>100</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
         <v>130</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
         <v>200</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15">
         <v>320</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1510,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="B13" s="6">
         <f>Robot_Velocity/Radius_of_drive_wheel</f>
-        <v>13.333333333333334</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="7">
         <f>B13*60/(2*3.14)</f>
-        <v>127.38853503184713</v>
+        <v>109.1901728844404</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
@@ -1656,21 +1665,21 @@
       </c>
       <c r="B14" s="6">
         <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*Total_mass*Radius_of_drive_wheel)/Number_of_drive_motors</f>
-        <v>0.24613044964787148</v>
+        <v>0.28715219125585012</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7">
         <f>B14*100/9.81</f>
-        <v>2.508975021894714</v>
+        <v>2.9271375255438339</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7">
         <f>B14*141.593</f>
-        <v>34.85034875699106</v>
+        <v>40.658740216489583</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="B15" s="6">
         <f>Torque*Angular_Velocity</f>
-        <v>3.2817393286382863</v>
+        <v>3.2817393286382872</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="7">
         <f>B15*0.00134102209</f>
-        <v>4.4008849333257117E-3</v>
+        <v>4.4008849333257126E-3</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>35</v>
@@ -1701,7 +1710,7 @@
       </c>
       <c r="B16" s="6">
         <f>B15/Supply_voltage</f>
-        <v>0.44347828765382247</v>
+        <v>0.44347828765382258</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
@@ -1713,7 +1722,7 @@
       </c>
       <c r="B17" s="6">
         <f>B16*(Desired_operating_time/60)*Number_of_drive_motors</f>
-        <v>1.7739131506152899</v>
+        <v>1.7739131506152903</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -1805,33 +1814,33 @@
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <f t="shared" ref="B24:H24" si="1">((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*B22*Radius_of_drive_wheel)/Number_of_drive_motors</f>
-        <v>3.7214297994981237E-2</v>
+        <v>4.341668099414478E-2</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="1"/>
-        <v>7.4428595989962473E-2</v>
+        <v>8.6833361988289559E-2</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>0.11164289398494372</v>
+        <v>0.13025004298243434</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>0.14885719197992495</v>
+        <v>0.17366672397657912</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>0.18607148997490619</v>
+        <v>0.2170834049707239</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
-        <v>0.37214297994981238</v>
+        <v>0.4341668099414478</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>0.74428595989962476</v>
+        <v>0.86833361988289559</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1840,31 +1849,31 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" ref="B25:H25" si="2">B24*100/9.81</f>
-        <v>0.37935064215067521</v>
+        <v>0.44257574917578774</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="2"/>
-        <v>0.75870128430135042</v>
+        <v>0.88515149835157547</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="2"/>
-        <v>1.1380519264520257</v>
+        <v>1.3277272475273634</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="2"/>
-        <v>1.5174025686027008</v>
+        <v>1.7703029967031509</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>1.896753210753376</v>
+        <v>2.2128787458789385</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>3.793506421506752</v>
+        <v>4.425757491757877</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>7.587012843013504</v>
+        <v>8.8515149835157541</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,31 +1882,31 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" ref="B26:H26" si="3">B24*141.593</f>
-        <v>5.2692840960033775</v>
+        <v>6.1474981120039409</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="3"/>
-        <v>10.538568192006755</v>
+        <v>12.294996224007882</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="3"/>
-        <v>15.807852288010135</v>
+        <v>18.442494336011823</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="3"/>
-        <v>21.07713638401351</v>
+        <v>24.589992448015764</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
-        <v>26.346420480016889</v>
+        <v>30.737490560019708</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="3"/>
-        <v>52.692840960033777</v>
+        <v>61.474981120039416</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="3"/>
-        <v>105.38568192006755</v>
+        <v>122.94996224007883</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1918,11 +1927,11 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" ref="B28:H28" si="4">B24*Angular_Velocity</f>
-        <v>0.49619063993308316</v>
+        <v>0.49619063993308321</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="4"/>
-        <v>0.99238127986616631</v>
+        <v>0.99238127986616642</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="4"/>
@@ -1930,7 +1939,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="4"/>
-        <v>1.9847625597323326</v>
+        <v>1.9847625597323328</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="4"/>
@@ -2020,29 +2029,29 @@
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <f>981*C35/10000</f>
         <v>7.4556000000000011E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <f>D36*1000/141593</f>
         <v>0.28249984109383941</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <f>E36*1000/141593</f>
         <v>0.35312480136729923</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <f>F36*1000/141593</f>
         <v>1.7656240068364961</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>2.7989999999999999</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <f>H36*1000/141593</f>
         <v>0.56499968218767882</v>
       </c>
@@ -2051,30 +2060,30 @@
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f t="shared" ref="B35:E35" si="7">B34*100/9.81</f>
         <v>0.37920489296636078</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>0.76</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <f t="shared" si="7"/>
         <v>2.8797129571237452</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <f t="shared" si="7"/>
         <v>3.5996411964046811</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <f t="shared" ref="F35:G35" si="8">F34*100/9.81</f>
         <v>17.998205982023403</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f t="shared" si="8"/>
         <v>28.532110091743114</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <f t="shared" ref="H35" si="9">H34*100/9.81</f>
         <v>5.7594259142474904</v>
       </c>
@@ -2083,28 +2092,28 @@
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <f t="shared" ref="B36" si="10">B34*141.593</f>
         <v>5.2672595999999992</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <f t="shared" ref="C36" si="11">C34*141.593</f>
         <v>10.556607708000001</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>40</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>50</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <v>250</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <f t="shared" ref="G36" si="12">G34*141.593</f>
         <v>396.31880699999994</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>80</v>
       </c>
     </row>
@@ -2112,47 +2121,47 @@
       <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
         <v>24.78</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1">
-        <f>(Total_efficiency*Number_of_drive_motors*B34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>0.45341809662177696</v>
+        <f t="shared" ref="B39:H39" si="13">(Total_efficiency*Number_of_drive_motors*B34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>0.38864408281866597</v>
       </c>
       <c r="C39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*C34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>0.90873762397132296</v>
+        <f t="shared" si="13"/>
+        <v>0.77891796340399111</v>
       </c>
       <c r="D39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*D34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>3.4432940926000839</v>
+        <f t="shared" si="13"/>
+        <v>2.9513949365143572</v>
       </c>
       <c r="E39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*E34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>4.3041176157501049</v>
+        <f t="shared" si="13"/>
+        <v>3.6892436706429472</v>
       </c>
       <c r="F39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*F34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>21.520588078750524</v>
+        <f t="shared" si="13"/>
+        <v>18.446218353214732</v>
       </c>
       <c r="G39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*G34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>34.116055173235317</v>
+        <f t="shared" si="13"/>
+        <v>29.242333005630272</v>
       </c>
       <c r="H39" s="11">
-        <f>(Total_efficiency*Number_of_drive_motors*H34)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
-        <v>6.8865881852001678</v>
+        <f t="shared" si="13"/>
+        <v>5.9027898730287145</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,31 +2170,413 @@
       </c>
       <c r="B40" s="1">
         <f>CONVERT(B39*1000,"g","lbm")</f>
-        <v>0.99961579296798342</v>
+        <v>0.85681353682970018</v>
       </c>
       <c r="C40" s="11">
         <f>CONVERT(C39*1000,"g","lbm")</f>
-        <v>2.0034235231322848</v>
+        <v>1.7172201626848156</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40:H40" si="13">CONVERT(D39*1000,"g","lbm")</f>
-        <v>7.591164050224398</v>
+        <f t="shared" ref="D40:H40" si="14">CONVERT(D39*1000,"g","lbm")</f>
+        <v>6.5067120430494834</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="13"/>
-        <v>9.4889550627804979</v>
+        <f t="shared" si="14"/>
+        <v>8.1333900538118549</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="13"/>
-        <v>47.444775313902483</v>
+        <f t="shared" si="14"/>
+        <v>40.666950269059271</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="13"/>
-        <v>75.213027003155545</v>
+        <f t="shared" si="14"/>
+        <v>64.468308859847596</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="13"/>
-        <v>15.182328100448796</v>
+        <f t="shared" si="14"/>
+        <v>13.013424086098967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="14">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="C45" s="14">
+        <f>981*C46/10000</f>
+        <v>7.4556000000000011E-2</v>
+      </c>
+      <c r="D45" s="14">
+        <f>D47*1000/141593</f>
+        <v>0.28249984109383941</v>
+      </c>
+      <c r="E45" s="14">
+        <f>E47*1000/141593</f>
+        <v>0.35312480136729923</v>
+      </c>
+      <c r="F45" s="14">
+        <f>F47*1000/141593</f>
+        <v>1.7656240068364961</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="H45" s="14">
+        <f>H47*1000/141593</f>
+        <v>0.56499968218767882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" ref="B46:E46" si="15">B45*100/9.81</f>
+        <v>0.37920489296636078</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" ref="D46:H46" si="16">D45*100/9.81</f>
+        <v>2.8797129571237452</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="16"/>
+        <v>3.5996411964046811</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="16"/>
+        <v>17.998205982023403</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="16"/>
+        <v>28.532110091743114</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="16"/>
+        <v>5.7594259142474904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" ref="B47:C47" si="17">B45*141.593</f>
+        <v>5.2672595999999992</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="17"/>
+        <v>10.556607708000001</v>
+      </c>
+      <c r="D47" s="14">
+        <v>40</v>
+      </c>
+      <c r="E47" s="14">
+        <v>50</v>
+      </c>
+      <c r="F47" s="14">
+        <v>250</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" ref="G47" si="18">G45*141.593</f>
+        <v>396.31880699999994</v>
+      </c>
+      <c r="H47" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14">
+        <v>24.78</v>
+      </c>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" ref="B50:H50" si="19">(Total_efficiency*Number_of_drive_motors*B45)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>0.38864408281866597</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="19"/>
+        <v>0.77891796340399111</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="19"/>
+        <v>2.9513949365143572</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="19"/>
+        <v>3.6892436706429472</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="19"/>
+        <v>18.446218353214732</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="19"/>
+        <v>29.242333005630272</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="19"/>
+        <v>5.9027898730287145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="12">
+        <f>CONVERT(B50*1000,"g","lbm")</f>
+        <v>0.85681353682970018</v>
+      </c>
+      <c r="C51" s="12">
+        <f>CONVERT(C50*1000,"g","lbm")</f>
+        <v>1.7172201626848156</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" ref="D51:H51" si="20">CONVERT(D50*1000,"g","lbm")</f>
+        <v>6.5067120430494834</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="20"/>
+        <v>8.1333900538118549</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="20"/>
+        <v>40.666950269059271</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="20"/>
+        <v>64.468308859847596</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="20"/>
+        <v>13.013424086098967</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="14">
+        <f>B58*1000/141593</f>
+        <v>0.56499968218767882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" ref="B57" si="21">B56*100/9.81</f>
+        <v>5.7594259142474904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12">
+        <f t="shared" ref="B61" si="22">(Total_efficiency*Number_of_drive_motors*B56)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>5.9027898730287145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="12">
+        <f t="shared" ref="B62" si="23">CONVERT(B61*1000,"g","lbm")</f>
+        <v>13.013424086098967</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="14">
+        <f>B67*1000/141593</f>
+        <v>0.35312480136729923</v>
+      </c>
+      <c r="D65" s="14">
+        <f>D67*1000/141593</f>
+        <v>0.17656240068364962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="14">
+        <f t="shared" ref="B66:D66" si="24">B65*100/9.81</f>
+        <v>3.5996411964046811</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="24"/>
+        <v>1.7998205982023405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="14">
+        <v>50</v>
+      </c>
+      <c r="D67" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="12">
+        <f t="shared" ref="B70:D70" si="25">(Total_efficiency*Number_of_drive_motors*B65)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>3.6892436706429472</v>
+      </c>
+      <c r="D70" s="12">
+        <f t="shared" si="25"/>
+        <v>1.8446218353214736</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="12">
+        <f t="shared" ref="B71:D71" si="26">CONVERT(B70*1000,"g","lbm")</f>
+        <v>8.1333900538118549</v>
+      </c>
+      <c r="D71" s="12">
+        <f t="shared" si="26"/>
+        <v>4.0666950269059274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.7989999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="14">
+        <f t="shared" ref="B74" si="27">B73*100/9.81</f>
+        <v>28.532110091743114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="14">
+        <f t="shared" ref="B75" si="28">B73*141.593</f>
+        <v>396.31880699999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="14">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="12">
+        <f t="shared" ref="B78" si="29">(Total_efficiency*Number_of_drive_motors*B73)/(Radius_of_drive_wheel*(981*SIN((PI()*Maximum_incline)/180)+100*Desired_acceleration))</f>
+        <v>29.242333005630272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="12">
+        <f t="shared" ref="B79" si="30">CONVERT(B78*1000,"g","lbm")</f>
+        <v>64.468308859847596</v>
       </c>
     </row>
   </sheetData>

--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darron\Documents\GitHub\prsg-misc\Worksheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
@@ -29,12 +34,12 @@
     <definedName name="VD">'Motor size sheet'!$B$5</definedName>
     <definedName name="VE">'Motor size sheet'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -310,6 +315,15 @@
   </si>
   <si>
     <t>Mcpro</t>
+  </si>
+  <si>
+    <t>47:1 Metal Gearmotor 25Dx52L mm LP 6V with 48 CPR Encoder</t>
+  </si>
+  <si>
+    <t>25D mm metal gearmotors </t>
+  </si>
+  <si>
+    <t>Metal Gearmotor Bracket Pair</t>
   </si>
 </sst>
 </file>
@@ -476,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1521,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -2241,7 +2255,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="14">
-        <f t="shared" ref="B46:E46" si="15">B45*100/9.81</f>
+        <f t="shared" ref="B46" si="15">B45*100/9.81</f>
         <v>0.37920489296636078</v>
       </c>
       <c r="C46" s="14">
@@ -2590,10 +2604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D39" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D40" si="0">B4*C4</f>
         <v>10</v>
       </c>
       <c r="I4">
@@ -2756,105 +2770,108 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.95</v>
+        <v>7.45</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>7.95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>7.45</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.95</v>
+        <v>7.95</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.95</v>
+        <v>7.95</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.99</v>
+        <v>6.95</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>3.98</v>
+        <v>6.95</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1.99</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13">
-        <v>23.95</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14">
-        <v>42.95</v>
+        <v>23.95</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2869,10 +2886,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15">
-        <v>21.95</v>
+        <v>42.95</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -2886,36 +2903,39 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>62</v>
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>21.95</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>4.95</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>4.25</v>
+        <v>4.95</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2927,13 +2947,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>9.9499999999999993</v>
+        <v>4.25</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -2944,28 +2961,31 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>9.9499999999999993</v>
@@ -2980,13 +3000,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>11.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -2997,60 +3014,63 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>11.95</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>29.99</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>29.99</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>2.99</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>24.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -3062,10 +3082,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>19.95</v>
+        <v>24.95</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -3077,74 +3097,91 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>19.95</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>4.29</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <f>SUM(D3:D39)</f>
-        <v>106.83000000000001</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>SUM(D3:D40)</f>
+        <v>184.17999999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F13" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.pololu.com/category/115/25d-mm-gearmotors"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId7"/>
+  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darron\Documents\GitHub\prsg-misc\Worksheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
     <definedName name="VD">'Motor size sheet'!$B$5</definedName>
     <definedName name="VE">'Motor size sheet'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -490,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +520,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1533,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,23 +1540,23 @@
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1616,7 +1611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1627,18 +1622,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1649,12 +1644,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1673,88 +1668,95 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="6">
         <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*Total_mass*Radius_of_drive_wheel)/Number_of_drive_motors</f>
-        <v>0.28715219125585012</v>
+        <v>8.6145657376755044E-2</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7">
         <f>B14*100/9.81</f>
-        <v>2.9271375255438339</v>
+        <v>0.87814125766315021</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7">
         <f>B14*141.593</f>
-        <v>40.658740216489583</v>
+        <v>12.197622064946875</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="6">
         <f>Torque*Angular_Velocity</f>
-        <v>3.2817393286382872</v>
+        <v>0.98452179859148625</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="7">
         <f>B15*0.00134102209</f>
-        <v>4.4008849333257126E-3</v>
+        <v>1.3202654799977138E-3</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6">
         <f>B15/Supply_voltage</f>
-        <v>0.44347828765382258</v>
+        <v>0.13304348629614679</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="6">
         <f>B16*(Desired_operating_time/60)*Number_of_drive_motors</f>
-        <v>1.7739131506152903</v>
+        <v>0.17739131506152905</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" s="6">
+        <f>M16*(Desired_operating_time/60)*Number_of_drive_motors</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -1777,12 +1779,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <f t="shared" ref="B22:H22" si="0">B20*0.45359237</f>
         <v>0.45359237000000002</v>
@@ -1812,7 +1814,7 @@
         <v>9.0718474000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>0.86833361988289559</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1890,7 +1892,7 @@
         <v>8.8515149835157541</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>122.94996224007883</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1935,7 +1937,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>9.9238127986616647</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2001,37 +2003,37 @@
         <v>1.3410557836029275</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" ref="B30:H30" si="6">B29*(Desired_operating_time/60)*Number_of_drive_motors</f>
-        <v>0.26821115672058549</v>
+        <v>8.9403718906861829E-2</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="6"/>
-        <v>0.53642231344117097</v>
+        <v>0.17880743781372366</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="6"/>
-        <v>0.80463347016175646</v>
+        <v>0.26821115672058549</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="6"/>
-        <v>1.0728446268823419</v>
+        <v>0.35761487562744732</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="6"/>
-        <v>1.3410557836029275</v>
+        <v>0.44701859453430914</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="6"/>
-        <v>2.6821115672058551</v>
+        <v>0.89403718906861829</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="6"/>
-        <v>5.3642231344117102</v>
+        <v>1.7880743781372366</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,7 +2608,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,6 +429,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1535,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>3</v>
+        <v>1.81</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1679,21 +1680,21 @@
       </c>
       <c r="B14" s="6">
         <f>((100/Total_efficiency)*(Desired_acceleration+9.81*(SIN(PI()*Maximum_incline/180)))*Total_mass*Radius_of_drive_wheel)/Number_of_drive_motors</f>
-        <v>0.28715219125585012</v>
+        <v>0.17324848872436291</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7">
         <f>B14*100/9.81</f>
-        <v>2.9271375255438339</v>
+        <v>1.7660396404114465</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7">
         <f>B14*141.593</f>
-        <v>40.658740216489583</v>
+        <v>24.530773263948717</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
@@ -1705,14 +1706,14 @@
       </c>
       <c r="B15" s="6">
         <f>Torque*Angular_Velocity</f>
-        <v>3.2817393286382872</v>
+        <v>1.9799827282784332</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="17">
         <f>B15*0.00134102209</f>
-        <v>4.4008849333257126E-3</v>
+        <v>2.6552005764398467E-3</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>35</v>
@@ -1724,7 +1725,7 @@
       </c>
       <c r="B16" s="6">
         <f>B15/Supply_voltage</f>
-        <v>0.44347828765382258</v>
+        <v>0.26756523355113959</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="B17" s="6">
         <f>B16*(Desired_operating_time/60)*Number_of_drive_motors</f>
-        <v>1.7739131506152903</v>
+        <v>1.0702609342045584</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -2606,7 +2607,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Worksheets/ROS ROV REV 2.xlsx
+++ b/Worksheets/ROS ROV REV 2.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darron\Documents\GitHub\prsg-misc\Worksheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8535" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="11370" yWindow="360" windowWidth="16815" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wheels" sheetId="1" r:id="rId1"/>
     <sheet name="Motor size sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Parts List" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Angular_Velocity">'Motor size sheet'!$B$13</definedName>
@@ -34,12 +30,12 @@
     <definedName name="VD">'Motor size sheet'!$B$5</definedName>
     <definedName name="VE">'Motor size sheet'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>Wheel Size</t>
   </si>
@@ -387,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,13 +419,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,7 +737,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,62 +746,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17">
         <v>50</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17">
         <v>90</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
         <v>100</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
         <v>130</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17">
         <v>200</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17">
         <v>320</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1536,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1711,7 +1710,7 @@
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f>B15*0.00134102209</f>
         <v>2.6552005764398467E-3</v>
       </c>
@@ -2607,8 +2606,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,4 +3184,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>CONVERT(B4,"mm","in")</f>
+        <v>1.2598425196850394</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <f>CONVERT(D4,"mm","in")</f>
+        <v>0.62992125984251968</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D8" si="0">B4/2</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <f>CONVERT(F4,"mm","in")</f>
+        <v>-5.905511811023622E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4-$B$18</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>CONVERT(B5,"mm","in")</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <f>CONVERT(D5,"mm","in")</f>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <f>CONVERT(F5,"mm","in")</f>
+        <v>9.8425196850393706E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F8" si="1">D5-$B$18</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>CONVERT(B6,"mm","in")</f>
+        <v>1.6535433070866141</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <f>CONVERT(D6,"mm","in")</f>
+        <v>0.82677165354330706</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <f>CONVERT(F6,"mm","in")</f>
+        <v>0.13779527559055119</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>CONVERT(B7,"mm","in")</f>
+        <v>1.9685039370078741</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <f>CONVERT(D7,"mm","in")</f>
+        <v>0.98425196850393704</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <f>CONVERT(F7,"mm","in")</f>
+        <v>0.29527559055118108</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>CONVERT(B8,"mm","in")</f>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="B8" s="3">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <f>CONVERT(D8,"mm","in")</f>
+        <v>1.1811023622047243</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <f>CONVERT(F8,"mm","in")</f>
+        <v>0.49212598425196852</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>CONVERT(A9,"in","mm")</f>
+        <v>63.5</v>
+      </c>
+      <c r="C9" s="3">
+        <f>A9/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="3">
+        <f>CONVERT(C9,"in","mm")</f>
+        <v>31.75</v>
+      </c>
+      <c r="E9" s="2">
+        <f>CONVERT(F9,"mm","in")</f>
+        <v>0.5610236220472441</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9-$B$18</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>CONVERT(B10,"mm","in")</f>
+        <v>2.7559055118110236</v>
+      </c>
+      <c r="B10" s="3">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2">
+        <f>CONVERT(D10,"mm","in")</f>
+        <v>1.3779527559055118</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D14" si="2">B10/2</f>
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <f>CONVERT(F10,"mm","in")</f>
+        <v>0.6889763779527559</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F14" si="3">D10-$B$18</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>CONVERT(B11,"mm","in")</f>
+        <v>2.9527559055118111</v>
+      </c>
+      <c r="B11" s="3">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2">
+        <f>CONVERT(D11,"mm","in")</f>
+        <v>1.4763779527559056</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>CONVERT(F11,"mm","in")</f>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>CONVERT(B12,"mm","in")</f>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="B12" s="3">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2">
+        <f>CONVERT(D12,"mm","in")</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <f>CONVERT(F12,"mm","in")</f>
+        <v>0.88582677165354329</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>CONVERT(B13,"mm","in")</f>
+        <v>3.9370078740157481</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <f>CONVERT(D13,"mm","in")</f>
+        <v>1.9685039370078741</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <f>CONVERT(F13,"mm","in")</f>
+        <v>1.2795275590551181</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>CONVERT(B14,"mm","in")</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="B14" s="3">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <f>CONVERT(D14,"mm","in")</f>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="2">
+        <f>CONVERT(F14,"mm","in")</f>
+        <v>1.6732283464566928</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>CONVERT(B16,"mm","in")</f>
+        <v>0.11811023622047244</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>CONVERT(B17,"mm","in")</f>
+        <v>0.57086614173228345</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B17+B16</f>
+        <v>17.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>